--- a/packages/xlsx-renderer/tests/integration/data/Renderer017-TemplateFormula/template.xlsx
+++ b/packages/xlsx-renderer/tests/integration/data/Renderer017-TemplateFormula/template.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siemienik/WebstormProjects/xlsx-import/packages/xlsx-renderer/tests/integration/data/Renderer017-TemplateFormula/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4930303B-5DED-C045-9E61-4DDF83246C0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF15782-1B73-0E4A-9CF4-8BC0D1BD7BC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{3937DCF4-5A75-A644-90AB-281CA53899EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Correct Formula" sheetId="1" r:id="rId1"/>
+    <sheet name="Incorrect Formula" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Item</t>
   </si>
@@ -70,6 +71,15 @@
   </si>
   <si>
     <t>#= SUMPRODUCT( B${item.__startOutput.r}:B${item.__endOutput.r}, C${item.__startOutput.r}:C${item.__endOutput.r}) / SUM(B${item.__startOutput.r}:B${item.__endOutput.r})</t>
+  </si>
+  <si>
+    <t>#= MAX( B${wrongItem.__startOutput.r}:B${item.__end.O.u.t.p.u.t.r})</t>
+  </si>
+  <si>
+    <t>Incorrect custom formula:</t>
+  </si>
+  <si>
+    <t>#! DELETE item</t>
   </si>
 </sst>
 </file>
@@ -101,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -137,6 +153,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +477,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,6 +533,79 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE34ABD-ABA2-974B-A81D-DD5C0A137BCA}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>10</v>
       </c>
